--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/59_Muğla_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/59_Muğla_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B624F433-6459-4C59-843B-9AF63F64FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{930E8320-E966-4174-AE5A-AED809EF9E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{E66A01A6-686B-46D6-85FB-936595F1DAA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{06EB1D74-868A-4B63-BAFA-A5E481914F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -955,13 +955,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3D9FDA76-16FA-4DD7-BF6F-CBA3225A1F13}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7E95D5E2-B595-4A04-AD62-26D50926E5A4}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{912179EB-E4BD-4D25-89F5-5078D2F38030}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{370C8FB5-D3C1-4C2D-B799-4210416F2A87}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F179DD1F-1CC2-438D-AC1E-FDDB0F5CB7E2}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{776E2B2B-6D25-41D7-82C1-56BC658483A3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{55A49F6C-B179-4913-A2E0-91EA984E9F17}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7C0EA743-EFC2-4285-BA69-174B4EF440A3}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4C6BEEBC-A8C2-4B08-AA8E-97472DA3229B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{859BD837-7286-4292-8499-EA875B8AB3DB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{79565EB5-D95C-44CF-AC3C-50D993FFB4B8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{6DA06376-52B2-4E88-BF56-C71BD30680D8}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{D93DA6D8-0668-4B5E-AD06-4E85B4587EF5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{A36E5519-38AB-429F-9CF2-E1D59B7C7B1D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CFE5F-AF9A-4358-8C20-EACF55FD97DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE8A94-41F2-4D95-821E-AEDDDAF89991}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A1B3C1-6F74-4B29-AC2D-7BE68627D57A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8237A98-92C2-4394-9B3B-B4EF1945B6F5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3922,7 +3922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74F187F-F90B-4CEA-9BBF-F0BB2C745D4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E15C17-7B02-4BC9-B55B-4899E07DE22C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5189,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFCBF0-6BA4-49AD-81A3-05D23D2467DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35DFBB5-B95C-45D0-BA04-8B4F94F36F9C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6452,7 +6452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EFF3A3-A70E-4B79-BE17-9045CE195A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED49601-43A3-4B98-908A-80766026DD53}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7765,7 +7765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3272CBD1-2931-470E-B1D6-1C84511094E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B1B7A9-70E8-4DF2-B253-D43F8DA51EC9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9074,7 +9074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3F730-E392-44B8-8BB0-902262FF75FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6383A84B-3396-4960-ABB0-02F3830398E0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10383,7 +10383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C44789-DAE7-4333-8497-BC23E61A8E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B04CF49-7398-4A93-8E52-C80E64BB5A00}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11692,7 +11692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8CC61E-65B0-41EB-8540-7718CF587317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B62456-8E9D-49FF-82FA-307EAB9E483A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13001,7 +13001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9FD3E-BAE7-4D64-9077-76E5D03EBB42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE5C340-C34F-435C-864E-148ADAA39C1E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14298,7 +14298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A0379-0410-4E2A-829E-C315F1EC3E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C3730E-B0E6-4FFA-A510-B0176880E221}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15591,7 +15591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C592B4C-B1F2-4A37-9E2D-562D63078DB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963DDD48-6928-4A40-A268-75455A712A3C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
